--- a/biology/Microbiologie/Wilhelm_von_Drigalski/Wilhelm_von_Drigalski.xlsx
+++ b/biology/Microbiologie/Wilhelm_von_Drigalski/Wilhelm_von_Drigalski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm von Drigalski, né Karl Rudolf Arnold Arthur Wilhelm von Drigalski le 21 juin 1871 à Dresde et mort le 12 mai 1950 à Wiesbaden, est un bactériologiste et hygiéniste allemand. Il a été l'assistant de Robert Koch, médecin allemand découvreur du bacille de la tuberculose, et a isolé la bacille du typhus avec Heinrich Conradi.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'un capitaine (Hauptmann) de l'armée prussienne - Arthur von Drigalski (1834-1897) - et de Minna Kuhn (1840-1900), Karl Wilhelm von Drigalski est issu d'une famille d'officiers militaires de Haute-Silésie (son grand-père, Karolus von Drigalski, fut colonel de l'armée prussienne)[1]. Il fréquenta durant ses études plusieurs écoles, à Hirschberg, Stargard et Ratibor. Il obtint son certificat de fin d'études à Detmold.
-Il étudia au Kaiser-Wilhelm Institüt (aujourd'hui l'Université Humboldt de Berlin) la médecine militaire, pour obtenir son doctorat en 1895. L'année d'après, il réussit l'examen d'État pour devenir médecin militaire. Assistant de Robert Koch à l'Hôpital universitaire de la Charité de Berlin, il fut - sous le conseil de Koch - intégré à la commission d'éradication du typhus en Allemagne, de 1902 à 1904[2]. 
-Professeur titulaire en 1905, il était également bactériologiste dans l'armée allemande. La même année, il se maria avec Elisabet "Liesbet" Dill, fille du conseiller municipal de Sarrebruck Fritz Dill[1]. Von Drigalski devint hygiéniste au Collège Technique de Hanovre. En 1907, il occupa le poste de médecin de la ville (Stadtartz) de Halle, obtenu grâce à la recommandation de Koch, et enseigna dans l'université locale à partir de 1913[2]. 
-Durant les guerres balkaniques et la Première Guerre mondiale, de par sa formation de médecin militaire, il est dépêché sur les fronts des Balkans et occidental, pour lutter contre les épidémies de choléra[1]. Durant quelques mois, en 1915/1916, il fut nommé au poste de médecin temporaire à Bruxelles. Puis, jusqu'à la fin de la guerre, devint conseiller pour l'armée dans le domaine de l'hygiène.
-Il devint le chef de la santé publique, au sein du conseil municipal, à Berlin en 1925. Avec la montée du nazisme et son implication dans le Parti démocrate allemand (DDP) - qu'il a rejoint en 1919, il est licencié de son poste à Berlin en mars 1933 et révoqué de son poste d'enseignant à Halle en 1937, l'obligeant à prendre à sa retraite. Il passa plusieurs années comme médecin de bord. Il s'installa à Wiesbaden, capitale de la Hesse, en 1942[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un capitaine (Hauptmann) de l'armée prussienne - Arthur von Drigalski (1834-1897) - et de Minna Kuhn (1840-1900), Karl Wilhelm von Drigalski est issu d'une famille d'officiers militaires de Haute-Silésie (son grand-père, Karolus von Drigalski, fut colonel de l'armée prussienne). Il fréquenta durant ses études plusieurs écoles, à Hirschberg, Stargard et Ratibor. Il obtint son certificat de fin d'études à Detmold.
+Il étudia au Kaiser-Wilhelm Institüt (aujourd'hui l'Université Humboldt de Berlin) la médecine militaire, pour obtenir son doctorat en 1895. L'année d'après, il réussit l'examen d'État pour devenir médecin militaire. Assistant de Robert Koch à l'Hôpital universitaire de la Charité de Berlin, il fut - sous le conseil de Koch - intégré à la commission d'éradication du typhus en Allemagne, de 1902 à 1904. 
+Professeur titulaire en 1905, il était également bactériologiste dans l'armée allemande. La même année, il se maria avec Elisabet "Liesbet" Dill, fille du conseiller municipal de Sarrebruck Fritz Dill. Von Drigalski devint hygiéniste au Collège Technique de Hanovre. En 1907, il occupa le poste de médecin de la ville (Stadtartz) de Halle, obtenu grâce à la recommandation de Koch, et enseigna dans l'université locale à partir de 1913. 
+Durant les guerres balkaniques et la Première Guerre mondiale, de par sa formation de médecin militaire, il est dépêché sur les fronts des Balkans et occidental, pour lutter contre les épidémies de choléra. Durant quelques mois, en 1915/1916, il fut nommé au poste de médecin temporaire à Bruxelles. Puis, jusqu'à la fin de la guerre, devint conseiller pour l'armée dans le domaine de l'hygiène.
+Il devint le chef de la santé publique, au sein du conseil municipal, à Berlin en 1925. Avec la montée du nazisme et son implication dans le Parti démocrate allemand (DDP) - qu'il a rejoint en 1919, il est licencié de son poste à Berlin en mars 1933 et révoqué de son poste d'enseignant à Halle en 1937, l'obligeant à prendre à sa retraite. Il passa plusieurs années comme médecin de bord. Il s'installa à Wiesbaden, capitale de la Hesse, en 1942.
 Après la guerre, il occupa le poste de chef de la santé publique et de conseiller du ministère de l'Intérieur, pour le land de Hesse, jusque fin 1948. 
 Il s'éteignit le 12 mai 1950, à l'âge de 78 ans.
 </t>
@@ -548,16 +562,88 @@
           <t>Réalisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les deux réalisations, expliquées ci-dessous et élaborées par Heinrich Conradi (de) (1876-1943) et von Drigalski, ont permis d'isoler la bacille du typhus (Salmonella typhi) de la bacille coli (E. Coli)[4], dans des échantillons de matière fécale[5] ; différenciation faire grâce à la différence de métabolisation des sucres. Ceci entraîna une amélioration du traitement du typhus et des dysenteries.
-Gélose de Drigalski-Conradi
-La gélose de Drigalski (appelée également gélose de Drigalski-Conradi ou Conradi-Drigalski[6],[5]) est utilisée en microbiologie pour la détection des bacilles et des colibacilles à Gram négatif non exigeants[7] (sélection des Enterobacteriaceae). 
-Elle consiste en un milieu (agar) sélectif se composant en grande partie de lactose, de peptone, ainsi que de cristal violet et de désoxycholate[8]. Les deux premiers produits permettent la différenciation entre les espèces qui fermentent le lactose ou non, les deux derniers inhibent en grande majorité les bactéries à Gram positif[9]. Conradi et Drigalski testèrent plusieurs colorants et trouvèrent que le cristal violet, à une concentration de 1 pour 100 000, inhibe les cocci non désirées sans pour autant gêner la formation des colonies de B. typhi[4]. 
-L'obtention de cette gélose a varié au cours des années[10], mais reste aujourd'hui un milieu très utilisé en microbiologie.
-Spatule de Drigalski
-La spatule de Drigalski sert à faciliter l'application uniforme et l'ensemencement des bactéries sur le milieu solide. Elle consiste en une tige, de métal ou de verre, avec un côté en forme de triangle pour le maintien. 
-Elle fut inventé également par von Drigalski et Conradi, en même temps que la méthode d'application surfacique[11] :  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les deux réalisations, expliquées ci-dessous et élaborées par Heinrich Conradi (de) (1876-1943) et von Drigalski, ont permis d'isoler la bacille du typhus (Salmonella typhi) de la bacille coli (E. Coli), dans des échantillons de matière fécale ; différenciation faire grâce à la différence de métabolisation des sucres. Ceci entraîna une amélioration du traitement du typhus et des dysenteries.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Wilhelm_von_Drigalski</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wilhelm_von_Drigalski</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Réalisations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gélose de Drigalski-Conradi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gélose de Drigalski (appelée également gélose de Drigalski-Conradi ou Conradi-Drigalski,) est utilisée en microbiologie pour la détection des bacilles et des colibacilles à Gram négatif non exigeants (sélection des Enterobacteriaceae). 
+Elle consiste en un milieu (agar) sélectif se composant en grande partie de lactose, de peptone, ainsi que de cristal violet et de désoxycholate. Les deux premiers produits permettent la différenciation entre les espèces qui fermentent le lactose ou non, les deux derniers inhibent en grande majorité les bactéries à Gram positif. Conradi et Drigalski testèrent plusieurs colorants et trouvèrent que le cristal violet, à une concentration de 1 pour 100 000, inhibe les cocci non désirées sans pour autant gêner la formation des colonies de B. typhi. 
+L'obtention de cette gélose a varié au cours des années, mais reste aujourd'hui un milieu très utilisé en microbiologie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Wilhelm_von_Drigalski</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Wilhelm_von_Drigalski</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Réalisations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Spatule de Drigalski</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La spatule de Drigalski sert à faciliter l'application uniforme et l'ensemencement des bactéries sur le milieu solide. Elle consiste en une tige, de métal ou de verre, avec un côté en forme de triangle pour le maintien. 
+Elle fut inventé également par von Drigalski et Conradi, en même temps que la méthode d'application surfacique :  
 chauffer la spatule sur un bec Bunsen, puis laisser refroidir ;
 tremper la partie fine dans l'échantillon ;
 appliquer dans toutes les directions sur le milieu solide.</t>
